--- a/medicine/Psychotrope/Trois-six/Trois-six.xlsx
+++ b/medicine/Psychotrope/Trois-six/Trois-six.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Trois-six est une eau-de-vie fabriquée en Normandie, portant ce nom pour signifier « trois mesures d'alcool et trois mesures d'eau ».
-Cet alcool faisait l'objet d'un trafic de contrebande dans les îles Anglo-Normandes, en particulier aux Écréhou[1].
+Cet alcool faisait l'objet d'un trafic de contrebande dans les îles Anglo-Normandes, en particulier aux Écréhou.
 On l’appelait également « Preuve de Hollande » et elle titrait 19° Cartier. Dans la région du Languedoc le « Trois-Six » était l’alcool à 95 / 96° issu de la distillation du marc de raisin.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XIXe mais aussi au début du XXe siècle, le trois-six était vendu sur les places publiques dont certaines en ont gardé le nom, le « trois/six » (92 à 95 degrés) et la fine (65 à 70 degrés).
 Le prix de vente n'était pas le même pour les deux alcools. Pour vérifier que c'était bien des barriques de trois/six que l'acheteur avait devant lui, il faisait le mélange 3/6e. Le degré du mélange était alors de 45° et il devait s'enflammer, ce qui n'était pas le cas pour la fine, qui ne titrait plus alors que 35°. Cette opération était faite sur place, à une époque où les alcoomètres n'existaient pas.
